--- a/(May-August, 2024) Presentation Roster.xlsx
+++ b/(May-August, 2024) Presentation Roster.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User10.RURIGI-WAWERU\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Downloads\RandomisingPresentationDate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E35A57B-EC80-438D-A9E8-BDAAB45A3A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3094538F-968A-4F5E-8FEB-53FB068FC27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{971959C3-BDCC-4784-931D-5CC78A601EB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{971959C3-BDCC-4784-931D-5CC78A601EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="FTs" sheetId="1" r:id="rId1"/>
-    <sheet name="ODLs" sheetId="2" r:id="rId2"/>
+    <sheet name="Panel 1" sheetId="3" r:id="rId2"/>
+    <sheet name="Panel 2" sheetId="4" r:id="rId3"/>
+    <sheet name="ODLs" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="303">
   <si>
     <t xml:space="preserve">Lucy Agono Okoth </t>
   </si>
@@ -908,13 +910,49 @@
   </si>
   <si>
     <t>Thursday - Friday, 18th-19th July</t>
+  </si>
+  <si>
+    <t>Day One: Thursday 18th-07-2024</t>
+  </si>
+  <si>
+    <t>PANEL ONE (L12)</t>
+  </si>
+  <si>
+    <t>PANEL TWO (L10)</t>
+  </si>
+  <si>
+    <t>RegNo</t>
+  </si>
+  <si>
+    <t>Roster No</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Panelist 1</t>
+  </si>
+  <si>
+    <t>Panelist 2</t>
+  </si>
+  <si>
+    <t>Panelist 3</t>
+  </si>
+  <si>
+    <t>Time Allocation</t>
+  </si>
+  <si>
+    <t>Project Title</t>
+  </si>
+  <si>
+    <t>LUNCH BREAK (1PM - 2PM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,8 +998,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,8 +1032,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1004,11 +1062,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1019,9 +1176,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1031,12 +1185,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1050,6 +1198,124 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2026FFA2-23BA-49F9-B9A7-813E9B4684FA}">
   <dimension ref="B2:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,2442 +1642,2442 @@
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21" style="7" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="27.42578125" style="8" customWidth="1"/>
+    <col min="7" max="8" width="27.42578125" style="7" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
     <col min="10" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14" t="s">
         <v>290</v>
       </c>
       <c r="H2"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
       <c r="H3"/>
     </row>
-    <row r="6" spans="2:13" s="6" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+    <row r="6" spans="2:13" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14">
+      <c r="F7" s="12"/>
+      <c r="G7" s="11">
         <v>1</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="11">
         <v>2</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>3</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <v>3</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>4</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13">
+      <c r="H10" s="11"/>
+      <c r="I10" s="10">
         <v>254743856634</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>4</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14">
+      <c r="F11" s="12"/>
+      <c r="G11" s="11">
         <v>5</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>5</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <v>6</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>6</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="11">
         <v>7</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>7</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="11">
         <v>8</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5" t="s">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+      <c r="B15" s="9">
         <v>8</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="11">
         <v>9</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>9</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <v>10</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <v>10</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="11">
         <v>11</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13" t="s">
+      <c r="H17" s="11"/>
+      <c r="I17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5" t="s">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>11</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="11">
         <v>12</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>1</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
+      <c r="B19" s="9">
         <v>12</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="11">
         <v>13</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="13" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>13</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="11">
         <v>14</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13" t="s">
+      <c r="H20" s="11"/>
+      <c r="I20" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <v>14</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="14">
+      <c r="F21" s="12"/>
+      <c r="G21" s="11">
         <v>15</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5" t="s">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>15</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="14">
+      <c r="F22" s="12"/>
+      <c r="G22" s="11">
         <v>16</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="11"/>
+      <c r="I22" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5" t="s">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>16</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="14">
+      <c r="F23" s="12"/>
+      <c r="G23" s="11">
         <v>17</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="13" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
         <v>1</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>17</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14">
+      <c r="F24" s="12"/>
+      <c r="G24" s="11">
         <v>18</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13" t="s">
+      <c r="H24" s="11"/>
+      <c r="I24" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4">
         <v>1</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5" t="s">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>18</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="14">
+      <c r="F25" s="12"/>
+      <c r="G25" s="11">
         <v>19</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="13">
+      <c r="H25" s="11"/>
+      <c r="I25" s="10">
         <v>254791653843</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5" t="s">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>19</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="14">
+      <c r="F26" s="12"/>
+      <c r="G26" s="11">
         <v>20</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="13" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5" t="s">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>20</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="14">
+      <c r="F27" s="12"/>
+      <c r="G27" s="11">
         <v>21</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="13" t="s">
+      <c r="H27" s="11"/>
+      <c r="I27" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5" t="s">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>21</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="14">
+      <c r="F28" s="12"/>
+      <c r="G28" s="11">
         <v>22</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="13" t="s">
+      <c r="H28" s="11"/>
+      <c r="I28" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5" t="s">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>22</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="14">
+      <c r="F29" s="12"/>
+      <c r="G29" s="11">
         <v>23</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="13" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4">
         <v>1</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <v>1</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
+      <c r="B30" s="9">
         <v>23</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="14">
+      <c r="F30" s="12"/>
+      <c r="G30" s="11">
         <v>24</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="13" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5" t="s">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
+      <c r="B31" s="9">
         <v>24</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="14">
+      <c r="F31" s="12"/>
+      <c r="G31" s="11">
         <v>25</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="13" t="s">
+      <c r="H31" s="11"/>
+      <c r="I31" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5" t="s">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
+      <c r="B32" s="9">
         <v>25</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="14">
+      <c r="F32" s="12"/>
+      <c r="G32" s="11">
         <v>26</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="13" t="s">
+      <c r="H32" s="11"/>
+      <c r="I32" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5" t="s">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
+      <c r="B33" s="9">
         <v>26</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="14">
+      <c r="F33" s="12"/>
+      <c r="G33" s="11">
         <v>27</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="13" t="s">
+      <c r="H33" s="11"/>
+      <c r="I33" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5" t="s">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <v>27</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="14">
+      <c r="F34" s="12"/>
+      <c r="G34" s="11">
         <v>28</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="13" t="s">
+      <c r="H34" s="11"/>
+      <c r="I34" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5" t="s">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
+      <c r="B35" s="9">
         <v>28</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="11">
         <v>29</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="13">
+      <c r="H35" s="11"/>
+      <c r="I35" s="10">
         <v>254702785107</v>
       </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5" t="s">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
+      <c r="B36" s="9">
         <v>29</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="14">
+      <c r="F36" s="12"/>
+      <c r="G36" s="11">
         <v>30</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="13">
+      <c r="H36" s="11"/>
+      <c r="I36" s="10">
         <v>254746757011</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5" t="s">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
+      <c r="B37" s="9">
         <v>30</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="11">
         <v>31</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="13" t="s">
+      <c r="H37" s="11"/>
+      <c r="I37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4">
         <v>1</v>
       </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5" t="s">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
+      <c r="B38" s="9">
         <v>31</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="11">
         <v>32</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5" t="s">
+      <c r="H38" s="11"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
+      <c r="B39" s="9">
         <v>32</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="11">
         <v>33</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="13" t="s">
+      <c r="H39" s="11"/>
+      <c r="I39" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5">
+      <c r="J39" s="4"/>
+      <c r="K39" s="4">
         <v>1</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="4">
         <v>1</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
+      <c r="B40" s="9">
         <v>33</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="14">
+      <c r="F40" s="12"/>
+      <c r="G40" s="11">
         <v>34</v>
       </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="13" t="s">
+      <c r="H40" s="11"/>
+      <c r="I40" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5" t="s">
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
+      <c r="B41" s="9">
         <v>34</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="14">
+      <c r="F41" s="12"/>
+      <c r="G41" s="11">
         <v>35</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="13" t="s">
+      <c r="H41" s="11"/>
+      <c r="I41" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5">
+      <c r="J41" s="4"/>
+      <c r="K41" s="4">
         <v>1</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5" t="s">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
+      <c r="B42" s="9">
         <v>35</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="14">
+      <c r="F42" s="12"/>
+      <c r="G42" s="11">
         <v>36</v>
       </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="13">
+      <c r="H42" s="11"/>
+      <c r="I42" s="10">
         <v>254748070643</v>
       </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5">
+      <c r="J42" s="4"/>
+      <c r="K42" s="4">
         <v>1</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="4">
         <v>1</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
+      <c r="B43" s="9">
         <v>36</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="11">
         <v>37</v>
       </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="13" t="s">
+      <c r="H43" s="11"/>
+      <c r="I43" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5" t="s">
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
+      <c r="B44" s="9">
         <v>37</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="11">
         <v>38</v>
       </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="13" t="s">
+      <c r="H44" s="11"/>
+      <c r="I44" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5" t="s">
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
+      <c r="B45" s="9">
         <v>38</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="14">
+      <c r="F45" s="12"/>
+      <c r="G45" s="11">
         <v>39</v>
       </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="13" t="s">
+      <c r="H45" s="11"/>
+      <c r="I45" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5" t="s">
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
+      <c r="B46" s="9">
         <v>39</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="14">
+      <c r="F46" s="12"/>
+      <c r="G46" s="11">
         <v>40</v>
       </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="13" t="s">
+      <c r="H46" s="11"/>
+      <c r="I46" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5" t="s">
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
+      <c r="B47" s="9">
         <v>40</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="11">
         <v>41</v>
       </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="13" t="s">
+      <c r="H47" s="11"/>
+      <c r="I47" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5">
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4">
         <v>1</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
+      <c r="B48" s="9">
         <v>41</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="11">
         <v>42</v>
       </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="13" t="s">
+      <c r="H48" s="11"/>
+      <c r="I48" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5" t="s">
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
+      <c r="B49" s="9">
         <v>42</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="11">
         <v>43</v>
       </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="13" t="s">
+      <c r="H49" s="11"/>
+      <c r="I49" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5" t="s">
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
+      <c r="B50" s="9">
         <v>43</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="11">
         <v>44</v>
       </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="13" t="s">
+      <c r="H50" s="11"/>
+      <c r="I50" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5">
+      <c r="J50" s="4"/>
+      <c r="K50" s="4">
         <v>1</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="4">
         <v>1</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
+      <c r="B51" s="9">
         <v>44</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="11">
         <v>45</v>
       </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="13" t="s">
+      <c r="H51" s="11"/>
+      <c r="I51" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5" t="s">
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
+      <c r="B52" s="9">
         <v>45</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="11">
         <v>46</v>
       </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="13" t="s">
+      <c r="H52" s="11"/>
+      <c r="I52" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5" t="s">
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
+      <c r="B53" s="9">
         <v>46</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="11">
         <v>47</v>
       </c>
-      <c r="H53" s="14"/>
-      <c r="I53" s="13" t="s">
+      <c r="H53" s="11"/>
+      <c r="I53" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5">
+      <c r="J53" s="4"/>
+      <c r="K53" s="4">
         <v>1</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="4">
         <v>1</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
+      <c r="B54" s="9">
         <v>47</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="11">
         <v>48</v>
       </c>
-      <c r="H54" s="14"/>
-      <c r="I54" s="13" t="s">
+      <c r="H54" s="11"/>
+      <c r="I54" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5">
+      <c r="J54" s="4"/>
+      <c r="K54" s="4">
         <v>1</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="4">
         <v>1</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="M54" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
+      <c r="B55" s="9">
         <v>48</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="11">
         <v>49</v>
       </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="13" t="s">
+      <c r="H55" s="11"/>
+      <c r="I55" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5" t="s">
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="12">
+      <c r="B56" s="9">
         <v>49</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="11">
         <v>50</v>
       </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="13" t="s">
+      <c r="H56" s="11"/>
+      <c r="I56" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5" t="s">
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="12">
+      <c r="B57" s="9">
         <v>50</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="11">
         <v>51</v>
       </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="13" t="s">
+      <c r="H57" s="11"/>
+      <c r="I57" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5">
+      <c r="J57" s="4"/>
+      <c r="K57" s="4">
         <v>1</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="4">
         <v>1</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="M57" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="12">
+      <c r="B58" s="9">
         <v>51</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="11">
         <v>52</v>
       </c>
-      <c r="H58" s="14"/>
-      <c r="I58" s="13" t="s">
+      <c r="H58" s="11"/>
+      <c r="I58" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5" t="s">
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="12">
+      <c r="B59" s="9">
         <v>52</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="11">
         <v>53</v>
       </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="13" t="s">
+      <c r="H59" s="11"/>
+      <c r="I59" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5">
+      <c r="J59" s="4"/>
+      <c r="K59" s="4">
         <v>1</v>
       </c>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5" t="s">
+      <c r="L59" s="4"/>
+      <c r="M59" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="12">
+      <c r="B60" s="9">
         <v>53</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="11">
         <v>54</v>
       </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="13" t="s">
+      <c r="H60" s="11"/>
+      <c r="I60" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5" t="s">
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="12">
+      <c r="B61" s="9">
         <v>54</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="11">
         <v>55</v>
       </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="13" t="s">
+      <c r="H61" s="11"/>
+      <c r="I61" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5" t="s">
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="12">
+      <c r="B62" s="9">
         <v>55</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="11">
         <v>56</v>
       </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="13" t="s">
+      <c r="H62" s="11"/>
+      <c r="I62" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5" t="s">
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="12">
+      <c r="B63" s="9">
         <v>56</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="11">
         <v>57</v>
       </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="13" t="s">
+      <c r="H63" s="11"/>
+      <c r="I63" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5" t="s">
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="12">
+      <c r="B64" s="9">
         <v>57</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="11">
         <v>58</v>
       </c>
-      <c r="H64" s="14"/>
-      <c r="I64" s="13" t="s">
+      <c r="H64" s="11"/>
+      <c r="I64" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5" t="s">
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="12">
+      <c r="B65" s="9">
         <v>58</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="11">
         <v>59</v>
       </c>
-      <c r="H65" s="14"/>
-      <c r="I65" s="13" t="s">
+      <c r="H65" s="11"/>
+      <c r="I65" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5" t="s">
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="12">
+      <c r="B66" s="9">
         <v>59</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="14">
+      <c r="F66" s="12"/>
+      <c r="G66" s="11">
         <v>60</v>
       </c>
-      <c r="H66" s="14"/>
-      <c r="I66" s="13" t="s">
+      <c r="H66" s="11"/>
+      <c r="I66" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5" t="s">
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="12">
+      <c r="B67" s="9">
         <v>60</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="14">
+      <c r="F67" s="12"/>
+      <c r="G67" s="11">
         <v>61</v>
       </c>
-      <c r="H67" s="14"/>
-      <c r="I67" s="13" t="s">
+      <c r="H67" s="11"/>
+      <c r="I67" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5" t="s">
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="12">
+      <c r="B68" s="9">
         <v>61</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F68" s="15"/>
-      <c r="G68" s="14">
+      <c r="F68" s="12"/>
+      <c r="G68" s="11">
         <v>62</v>
       </c>
-      <c r="H68" s="14"/>
-      <c r="I68" s="13" t="s">
+      <c r="H68" s="11"/>
+      <c r="I68" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5" t="s">
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="12">
+      <c r="B69" s="9">
         <v>62</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="14">
+      <c r="F69" s="12"/>
+      <c r="G69" s="11">
         <v>63</v>
       </c>
-      <c r="H69" s="14"/>
-      <c r="I69" s="13" t="s">
+      <c r="H69" s="11"/>
+      <c r="I69" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5" t="s">
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="12">
+      <c r="B70" s="9">
         <v>63</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="14">
+      <c r="F70" s="12"/>
+      <c r="G70" s="11">
         <v>64</v>
       </c>
-      <c r="H70" s="14"/>
-      <c r="I70" s="13" t="s">
+      <c r="H70" s="11"/>
+      <c r="I70" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5">
+      <c r="J70" s="4"/>
+      <c r="K70" s="4">
         <v>1</v>
       </c>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5" t="s">
+      <c r="L70" s="4"/>
+      <c r="M70" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="12">
+      <c r="B71" s="9">
         <v>64</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="14">
+      <c r="F71" s="12"/>
+      <c r="G71" s="11">
         <v>65</v>
       </c>
-      <c r="H71" s="14"/>
-      <c r="I71" s="13" t="s">
+      <c r="H71" s="11"/>
+      <c r="I71" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="12">
+      <c r="B72" s="9">
         <v>65</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="14">
+      <c r="F72" s="12"/>
+      <c r="G72" s="11">
         <v>66</v>
       </c>
-      <c r="H72" s="14"/>
-      <c r="I72" s="13">
+      <c r="H72" s="11"/>
+      <c r="I72" s="10">
         <v>254710410793</v>
       </c>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5" t="s">
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="12">
+      <c r="B73" s="9">
         <v>66</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="14">
+      <c r="F73" s="12"/>
+      <c r="G73" s="11">
         <v>67</v>
       </c>
-      <c r="H73" s="14"/>
-      <c r="I73" s="13" t="s">
+      <c r="H73" s="11"/>
+      <c r="I73" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5" t="s">
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="12">
+      <c r="B74" s="9">
         <v>67</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="14">
+      <c r="F74" s="12"/>
+      <c r="G74" s="11">
         <v>68</v>
       </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="13" t="s">
+      <c r="H74" s="11"/>
+      <c r="I74" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5" t="s">
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="12">
+      <c r="B75" s="9">
         <v>68</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="14">
+      <c r="F75" s="12"/>
+      <c r="G75" s="11">
         <v>69</v>
       </c>
-      <c r="H75" s="14"/>
-      <c r="I75" s="13" t="s">
+      <c r="H75" s="11"/>
+      <c r="I75" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5">
+      <c r="J75" s="4"/>
+      <c r="K75" s="4">
         <v>1</v>
       </c>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5" t="s">
+      <c r="L75" s="4"/>
+      <c r="M75" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="12">
+      <c r="B76" s="9">
         <v>69</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="14">
+      <c r="F76" s="12"/>
+      <c r="G76" s="11">
         <v>70</v>
       </c>
-      <c r="H76" s="14"/>
-      <c r="I76" s="13" t="s">
+      <c r="H76" s="11"/>
+      <c r="I76" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5" t="s">
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="12">
+      <c r="B77" s="9">
         <v>70</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="14">
+      <c r="F77" s="12"/>
+      <c r="G77" s="11">
         <v>71</v>
       </c>
-      <c r="H77" s="14"/>
-      <c r="I77" s="13" t="s">
+      <c r="H77" s="11"/>
+      <c r="I77" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5" t="s">
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="12">
+      <c r="B78" s="9">
         <v>71</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="14">
+      <c r="F78" s="12"/>
+      <c r="G78" s="11">
         <v>72</v>
       </c>
-      <c r="H78" s="14"/>
-      <c r="I78" s="13" t="s">
+      <c r="H78" s="11"/>
+      <c r="I78" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5" t="s">
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="12">
+      <c r="B79" s="9">
         <v>72</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="14">
+      <c r="F79" s="12"/>
+      <c r="G79" s="11">
         <v>73</v>
       </c>
-      <c r="H79" s="14"/>
-      <c r="I79" s="13" t="s">
+      <c r="H79" s="11"/>
+      <c r="I79" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5" t="s">
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="12">
+      <c r="B80" s="9">
         <v>73</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F80" s="15"/>
-      <c r="G80" s="14">
+      <c r="F80" s="12"/>
+      <c r="G80" s="11">
         <v>74</v>
       </c>
-      <c r="H80" s="14"/>
-      <c r="I80" s="13" t="s">
+      <c r="H80" s="11"/>
+      <c r="I80" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5" t="s">
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="12">
+      <c r="B81" s="9">
         <v>74</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="14">
+      <c r="F81" s="12"/>
+      <c r="G81" s="11">
         <v>75</v>
       </c>
-      <c r="H81" s="14"/>
-      <c r="I81" s="13" t="s">
+      <c r="H81" s="11"/>
+      <c r="I81" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5" t="s">
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="12">
+      <c r="B82" s="9">
         <v>75</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="14">
+      <c r="F82" s="12"/>
+      <c r="G82" s="11">
         <v>76</v>
       </c>
-      <c r="H82" s="14"/>
-      <c r="I82" s="13" t="s">
+      <c r="H82" s="11"/>
+      <c r="I82" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5">
+      <c r="J82" s="4"/>
+      <c r="K82" s="4">
         <v>1</v>
       </c>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5" t="s">
+      <c r="L82" s="4"/>
+      <c r="M82" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="12">
+      <c r="B83" s="9">
         <v>76</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="14">
+      <c r="F83" s="12"/>
+      <c r="G83" s="11">
         <v>77</v>
       </c>
-      <c r="H83" s="14"/>
-      <c r="I83" s="13" t="s">
+      <c r="H83" s="11"/>
+      <c r="I83" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5" t="s">
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="12">
+      <c r="B84" s="9">
         <v>77</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F84" s="15"/>
-      <c r="G84" s="14">
+      <c r="F84" s="12"/>
+      <c r="G84" s="11">
         <v>78</v>
       </c>
-      <c r="H84" s="14"/>
-      <c r="I84" s="13" t="s">
+      <c r="H84" s="11"/>
+      <c r="I84" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5" t="s">
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="12">
+      <c r="B85" s="9">
         <v>78</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="14">
+      <c r="E85" s="11"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="11">
         <v>79</v>
       </c>
-      <c r="H85" s="14"/>
-      <c r="I85" s="13" t="s">
+      <c r="H85" s="11"/>
+      <c r="I85" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5">
+      <c r="J85" s="4"/>
+      <c r="K85" s="4">
         <v>1</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L85" s="4">
         <v>1</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="M85" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="12">
+      <c r="B86" s="9">
         <v>79</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="14">
+      <c r="E86" s="11"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="11">
         <v>80</v>
       </c>
-      <c r="H86" s="14"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="12">
+      <c r="B87" s="9">
         <v>80</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:I86">
@@ -3827,6 +4093,1471 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EF858F-EDC0-4E5E-B534-AA330F920193}">
+  <dimension ref="B2:M62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="8" spans="2:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="27">
+        <v>1</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0.375</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>2</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="27">
+        <v>2</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>3</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="27">
+        <v>3</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="25">
+        <v>4</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="27">
+        <v>4</v>
+      </c>
+      <c r="I13" s="30">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="27">
+        <v>5</v>
+      </c>
+      <c r="I14" s="30">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="25">
+        <v>6</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="27">
+        <v>6</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="25">
+        <v>7</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="27">
+        <v>7</v>
+      </c>
+      <c r="I16" s="30">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="25">
+        <v>8</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="27">
+        <v>8</v>
+      </c>
+      <c r="I17" s="30">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="25">
+        <v>9</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="27">
+        <v>9</v>
+      </c>
+      <c r="I18" s="30">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="25">
+        <v>10</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="27">
+        <v>10</v>
+      </c>
+      <c r="I19" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="25">
+        <v>11</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="27">
+        <v>11</v>
+      </c>
+      <c r="I20" s="30">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="25">
+        <v>12</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="27">
+        <v>12</v>
+      </c>
+      <c r="I21" s="30">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="25">
+        <v>13</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="27">
+        <v>13</v>
+      </c>
+      <c r="I22" s="30">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="25">
+        <v>14</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="27">
+        <v>14</v>
+      </c>
+      <c r="I24" s="30">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="25">
+        <v>15</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="27">
+        <v>15</v>
+      </c>
+      <c r="I25" s="30">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="25">
+        <v>16</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="27">
+        <v>16</v>
+      </c>
+      <c r="I26" s="30">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="25">
+        <v>17</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="27">
+        <v>17</v>
+      </c>
+      <c r="I27" s="30">
+        <v>0.625</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="25">
+        <v>18</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="27">
+        <v>18</v>
+      </c>
+      <c r="I28" s="30">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="25">
+        <v>19</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="27">
+        <v>19</v>
+      </c>
+      <c r="I29" s="30">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="25">
+        <v>20</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="27">
+        <v>20</v>
+      </c>
+      <c r="I30" s="30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="25">
+        <v>21</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="27">
+        <v>21</v>
+      </c>
+      <c r="I31" s="30">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="J31" s="27"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B5:M6"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B2:M3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04570D3E-0870-4707-A274-2D6D12B8F314}">
+  <dimension ref="B2:M27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L5" s="45"/>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="6" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
+        <v>21</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="27">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0.375</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
+        <v>22</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="27">
+        <v>2</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>23</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="27">
+        <v>3</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <v>24</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="27">
+        <v>4</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>25</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="27">
+        <v>5</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>26</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="27">
+        <v>6</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="25">
+        <v>27</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="27">
+        <v>7</v>
+      </c>
+      <c r="I13" s="30">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
+        <v>28</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="27">
+        <v>8</v>
+      </c>
+      <c r="I14" s="30">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25">
+        <v>29</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="27">
+        <v>9</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25">
+        <v>30</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="27">
+        <v>10</v>
+      </c>
+      <c r="I16" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25">
+        <v>31</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="27">
+        <v>11</v>
+      </c>
+      <c r="I17" s="30">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25">
+        <v>32</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="27">
+        <v>12</v>
+      </c>
+      <c r="I18" s="30">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25">
+        <v>33</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="27">
+        <v>13</v>
+      </c>
+      <c r="I20" s="30">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25">
+        <v>34</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="27">
+        <v>14</v>
+      </c>
+      <c r="I21" s="30">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+    </row>
+    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="25">
+        <v>35</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="27">
+        <v>15</v>
+      </c>
+      <c r="I22" s="30">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="25">
+        <v>36</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="27">
+        <v>16</v>
+      </c>
+      <c r="I23" s="30">
+        <v>0.625</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+    </row>
+    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="25">
+        <v>37</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="27">
+        <v>17</v>
+      </c>
+      <c r="I24" s="30">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="25">
+        <v>38</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="27">
+        <v>18</v>
+      </c>
+      <c r="I25" s="30">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="25">
+        <v>39</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="27">
+        <v>19</v>
+      </c>
+      <c r="I26" s="30">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="25">
+        <v>40</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="27">
+        <v>20</v>
+      </c>
+      <c r="I27" s="30">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B2:M3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD653D1-E2C6-4537-9383-076F2EC41E61}">
   <dimension ref="B2:K20"/>
   <sheetViews>
@@ -3842,24 +5573,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="5" spans="2:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
